--- a/synergy_results.xlsx
+++ b/synergy_results.xlsx
@@ -498,7 +498,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Citric Acid</t>
+          <t>salt</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -508,22 +508,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>39634523, 39626565, 39626563, 39625155, 39624347</t>
+          <t>Salt and Water: A Review of Hypernatremia., Salt as a non-caloric behavioral modifier: A review of evidence from pre-clinical studies., Epithelial Sodium Channel and Salt-Sensitive Hypertension., Long-Term Effect of Salt Substitution for Cardiovascular Outcomes : A Systematic Review and Meta-analysis., Organoleptic Effects of Salt Fortification with Iron and Iodine: A Review., Salt Sensitivity: Causes, Consequences, and Recent Advances., Developing Salt-Rejecting Evaporators for Solar Desalination: A Critical Review., Sodium Intake and Heart Failure., Review on descaling and anti-scaling technology of heat exchanger in high-salt wastewater thermal desalination., A comprehensive review of plant-derived salt substitutes: Classification, mechanism, and application., Salt Toxicity: A Systematic Review and Case Reports., A review of the world's salt reduction policies and strategies - preparing for the upcoming year 2025., Quantifying salt sensitivity., The effects of road salt on freshwater ecosystems and solutions for mitigating chloride pollution - A review., Comment on Hogas et al. Salt, Not Always a Cardiovascular Enemy? A Mini-Review and Modern Perspective. Medicina 2022, 58, 1175., Cancer Salt Nostalgia., Treatment of Umbilical Granuloma in Infants With Topical Application of Common Salt: A Scoping Review., Replacing salt with low-sodium salt substitutes (LSSS) for cardiovascular health in adults, children and pregnant women., Bio-preservation of raw hides/skins: A review on greener substitute to conventional salt curing., What methods have been used to estimate salt intake? A systematic review., Molecular and Cellular Mechanisms of Salt Taste., The World Hypertension League Science of Salt: a regularly updated systematic review of salt and health outcomes studies (Sept 2019 to Dec 2020)., The perspective of hypertension and salt intake in Chinese population., Effect of sodium salt on meat products and reduction sodium strategies - A review., Salt Taste and Salt Sensitive Hypertension in HIV., Fermented shellfish condiments: A comprehensive review., Role of Uromodulin in Salt-Sensitive Hypertension., How salt stress-responsive proteins regulate plant adaptation to saline conditions., Reduction of sodium chloride: a review., Recent Advances in Hypertension: Epigenetic Mechanism Involved in Development of Salt-Sensitive Hypertension., Gut-Immune-Kidney Axis: Influence of Dietary Protein in Salt-Sensitive Hypertension., Salt: The paradoxical philosopher's stone of autonomic medicine., Inverse Salt Sensitivity of Blood Pressure: Mechanisms and Potential Relevance for Prevention of Cardiovascular Disease., Thyroid function and iodine intake: global recommendations and relevant dietary trends., Strategy for sodium-salt substitution: On the relationship between hypertension and dietary intake of cations., Salt intake and salt-reduction strategies in South Asia: From evidence to action., Dendritic cell epithelial sodium channel induced inflammation and salt-sensitive hypertension., Regulating distal nephron functions and salt sensitivity., Female Sex, a Major Risk Factor for Salt-Sensitive Hypertension., ENaC in Salt-Sensitive Hypertension: Kidney and Beyond., Salty Subjects: Unpacking Racial Differences in Salt-Sensitive Hypertension., Does the kidney influence the hunger for salt?, Contribution of sympathetic nervous system to high blood pressure in salt hypertensive dahl rats., Salt Reduction Initiatives in the Eastern Mediterranean Region and Evaluation of Progress towards the 2025 Global Target: A Systematic Review., Salt and Sugar: Two Enemies of Healthy Blood Pressure in Children., Recent Advances in Understanding Peripheral and Gut Immune Cell-Mediated Salt-Sensitive Hypertension and Nephropathy., Modifying Dietary Sodium and Potassium Intake: An End to the 'Salt Wars'?, Sodium as an Important Regulator of Immunometabolism., Sodium and Salt Consumption in Latin America and the Caribbean: A Systematic-Review and Meta-Analysis of Population-Based Studies and Surveys., Conventional and emerging approaches for reducing dietary intake of salt., [Can salt substitution or reduction replace pharmaceuticals for arterial hypertension?]., Sex Differences in Salt Appetite: Perspectives from Animal Models and Human Studies., Dendritic Cell Epithelial Sodium Channel in Inflammation, Salt-Sensitive Hypertension, and Kidney Damage., Skin regulation of salt and blood pressure and potential clinical implications., Compendium of sodium reduction strategies in foods: A scoping review., Central Galphai(2) Protein Mediated Neuro-Hormonal Control of Blood Pressure and Salt Sensitivity., A Global Review of National Strategies to Reduce Sodium Concentrations in Packaged Foods., Regulation of the WNK4-SPAK-NCC pathway by the calcium-sensing receptor., Are Salt Tablets Effective in the Treatment of Euvolemic Hyponatremia?, Salt and drought stress-mitigating approaches in sugar beet (Beta vulgaris L.) to improve its performance and yield., [Non-pharmacological treatment methods for arterial hypertension (including salt consumption)]., Brain sodium sensing for regulation of thirst, salt appetite, and blood pressure., The Role of Chloride Channels in Plant Responses to NaCl., Dietary salt intake in chronic kidney disease: recent studies and their practical implications., Molecular Crystallization Inhibitors for Salt Damage Control in Porous Materials: An Overview., Metabolic Potential of Halophilic Filamentous Fungi-Current Perspective., Salt Sensitivity of Blood Pressure in Black People: The Need to Sort Out Ancestry Versus Epigenetic Versus Social Determinants of Its Causation., The role of inorganic salts in dough properties and noodle quality-A review., Physiological Mechanisms of Dietary Salt Sensing in the Brain, Kidney, and Gastrointestinal Tract., Sodium Status and Replacement in Children and Adults Living with Cystic Fibrosis: A Narrative Review., Mitochondrial Damage and Hypertension: Another Dark Side of Sodium Excess.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Valorization of apple pomace: Structural and rheological characterization of low-Methoxyl Pectins extracted with green agents of citric acid/sodium citrate., Amplifying Bioactivity of blue honeysuckle (Lonicera caerulea L.) fruit puree through Ultrasonication: Antioxidant and antiproliferative activity., Optimization of UAE-NADES green extraction of bioactive compounds from chickpea (Cicer arietinum L.) sprouts using simplex lattice mixture design methodology., Highly Water-Soluble Microneedle Patch for Short Wear Time and Rapid Drug Delivery., Effect of timing of citrate drink ingestion on blood lactate removal.</t>
+          <t>Salt and Water: A Review of Hypernatremia., Salt as a non-caloric behavioral modifier: A review of evidence from pre-clinical studies., Epithelial Sodium Channel and Salt-Sensitive Hypertension., Long-Term Effect of Salt Substitution for Cardiovascular Outcomes : A Systematic Review and Meta-analysis., Organoleptic Effects of Salt Fortification with Iron and Iodine: A Review., Salt Sensitivity: Causes, Consequences, and Recent Advances., Developing Salt-Rejecting Evaporators for Solar Desalination: A Critical Review., Sodium Intake and Heart Failure., Review on descaling and anti-scaling technology of heat exchanger in high-salt wastewater thermal desalination., A comprehensive review of plant-derived salt substitutes: Classification, mechanism, and application., Salt Toxicity: A Systematic Review and Case Reports., A review of the world's salt reduction policies and strategies - preparing for the upcoming year 2025., Quantifying salt sensitivity., The effects of road salt on freshwater ecosystems and solutions for mitigating chloride pollution - A review., Comment on Hogas et al. Salt, Not Always a Cardiovascular Enemy? A Mini-Review and Modern Perspective. Medicina 2022, 58, 1175., Cancer Salt Nostalgia., Treatment of Umbilical Granuloma in Infants With Topical Application of Common Salt: A Scoping Review., Replacing salt with low-sodium salt substitutes (LSSS) for cardiovascular health in adults, children and pregnant women., Bio-preservation of raw hides/skins: A review on greener substitute to conventional salt curing., What methods have been used to estimate salt intake? A systematic review., Molecular and Cellular Mechanisms of Salt Taste., The World Hypertension League Science of Salt: a regularly updated systematic review of salt and health outcomes studies (Sept 2019 to Dec 2020)., The perspective of hypertension and salt intake in Chinese population., Effect of sodium salt on meat products and reduction sodium strategies - A review., Salt Taste and Salt Sensitive Hypertension in HIV., Fermented shellfish condiments: A comprehensive review., Role of Uromodulin in Salt-Sensitive Hypertension., How salt stress-responsive proteins regulate plant adaptation to saline conditions., Reduction of sodium chloride: a review., Recent Advances in Hypertension: Epigenetic Mechanism Involved in Development of Salt-Sensitive Hypertension., Gut-Immune-Kidney Axis: Influence of Dietary Protein in Salt-Sensitive Hypertension., Salt: The paradoxical philosopher's stone of autonomic medicine., Inverse Salt Sensitivity of Blood Pressure: Mechanisms and Potential Relevance for Prevention of Cardiovascular Disease., Thyroid function and iodine intake: global recommendations and relevant dietary trends., Strategy for sodium-salt substitution: On the relationship between hypertension and dietary intake of cations., Salt intake and salt-reduction strategies in South Asia: From evidence to action., Dendritic cell epithelial sodium channel induced inflammation and salt-sensitive hypertension., Regulating distal nephron functions and salt sensitivity., Female Sex, a Major Risk Factor for Salt-Sensitive Hypertension., ENaC in Salt-Sensitive Hypertension: Kidney and Beyond., Salty Subjects: Unpacking Racial Differences in Salt-Sensitive Hypertension., Does the kidney influence the hunger for salt?, Contribution of sympathetic nervous system to high blood pressure in salt hypertensive dahl rats., Salt Reduction Initiatives in the Eastern Mediterranean Region and Evaluation of Progress towards the 2025 Global Target: A Systematic Review., Salt and Sugar: Two Enemies of Healthy Blood Pressure in Children., Recent Advances in Understanding Peripheral and Gut Immune Cell-Mediated Salt-Sensitive Hypertension and Nephropathy., Modifying Dietary Sodium and Potassium Intake: An End to the 'Salt Wars'?, Sodium as an Important Regulator of Immunometabolism., Sodium and Salt Consumption in Latin America and the Caribbean: A Systematic-Review and Meta-Analysis of Population-Based Studies and Surveys., Conventional and emerging approaches for reducing dietary intake of salt., [Can salt substitution or reduction replace pharmaceuticals for arterial hypertension?]., Sex Differences in Salt Appetite: Perspectives from Animal Models and Human Studies., Dendritic Cell Epithelial Sodium Channel in Inflammation, Salt-Sensitive Hypertension, and Kidney Damage., Skin regulation of salt and blood pressure and potential clinical implications., Compendium of sodium reduction strategies in foods: A scoping review., Central Galphai(2) Protein Mediated Neuro-Hormonal Control of Blood Pressure and Salt Sensitivity., A Global Review of National Strategies to Reduce Sodium Concentrations in Packaged Foods., Regulation of the WNK4-SPAK-NCC pathway by the calcium-sensing receptor., Are Salt Tablets Effective in the Treatment of Euvolemic Hyponatremia?, Salt and drought stress-mitigating approaches in sugar beet (Beta vulgaris L.) to improve its performance and yield., [Non-pharmacological treatment methods for arterial hypertension (including salt consumption)]., Brain sodium sensing for regulation of thirst, salt appetite, and blood pressure., The Role of Chloride Channels in Plant Responses to NaCl., Dietary salt intake in chronic kidney disease: recent studies and their practical implications., Molecular Crystallization Inhibitors for Salt Damage Control in Porous Materials: An Overview., Metabolic Potential of Halophilic Filamentous Fungi-Current Perspective., Salt Sensitivity of Blood Pressure in Black People: The Need to Sort Out Ancestry Versus Epigenetic Versus Social Determinants of Its Causation., The role of inorganic salts in dough properties and noodle quality-A review., Physiological Mechanisms of Dietary Salt Sensing in the Brain, Kidney, and Gastrointestinal Tract., Sodium Status and Replacement in Children and Adults Living with Cystic Fibrosis: A Narrative Review., Mitochondrial Damage and Hypertension: Another Dark Side of Sodium Excess.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2-hydroxypropane-1,2,3-tricarboxylic acid, (1E,6E)-1,7-bis(4-hydroxy-3-methoxyphenyl)hepta-1,6-diene-3,5-dione</t>
+          <t>sodium;chloride, (1E,6E)-1,7-bis(4-hydroxy-3-methoxyphenyl)hepta-1,6-diene-3,5-dione</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>C(C(=O)O)C(CC(=O)O)(C(=O)O)O.COC1=C(C=CC(=C1)C=CC(=O)CC(=O)C=CC2=CC(=C(C=C2)O)OC)O</t>
+          <t>[Na+].[Cl-].COC1=C(C=CC(=C1)C=CC(=O)CC(=O)C=CC2=CC(=C(C=C2)O)OC)O</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>static/cadd_images\Citric Acid_CADD.png</t>
+          <t>static/cadd_images\salt_CADD.png</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>static/cadd_images\Citric Acid_Curcumin_Synergy.png</t>
+          <t>static/cadd_images\salt_Curcumin_Synergy.png</t>
         </is>
       </c>
     </row>
